--- a/data/542/BOKNA/Quarterly_Nominal_NSA.xlsx
+++ b/data/542/BOKNA/Quarterly_Nominal_NSA.xlsx
@@ -666,7 +666,8 @@
     <col min="249" max="249" width="12.0" customWidth="true"/>
     <col min="250" max="250" width="13.0" customWidth="true"/>
     <col min="251" max="251" width="12.0" customWidth="true"/>
-    <col min="252" max="252" width="4.0" customWidth="true"/>
+    <col min="252" max="252" width="13.0" customWidth="true"/>
+    <col min="253" max="253" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1930,6 +1931,11 @@
           <t>2021 4</t>
         </is>
       </c>
+      <c r="IS1" s="2" t="inlineStr">
+        <is>
+          <t>2022 1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2693,7 +2699,10 @@
       <c r="IQ2" s="5" t="n">
         <v>8940.9</v>
       </c>
-      <c r="IR2" s="1" t="inlineStr">
+      <c r="IR2" s="5" t="n">
+        <v>11042.9</v>
+      </c>
+      <c r="IS2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3461,7 +3470,10 @@
       <c r="IQ3" s="5" t="n">
         <v>455.3</v>
       </c>
-      <c r="IR3" s="1" t="inlineStr">
+      <c r="IR3" s="5" t="n">
+        <v>519.5</v>
+      </c>
+      <c r="IS3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4229,7 +4241,10 @@
       <c r="IQ4" s="5" t="n">
         <v>137489.5</v>
       </c>
-      <c r="IR4" s="1" t="inlineStr">
+      <c r="IR4" s="5" t="n">
+        <v>134459.0</v>
+      </c>
+      <c r="IS4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4997,7 +5012,10 @@
       <c r="IQ5" s="5" t="n">
         <v>8313.4</v>
       </c>
-      <c r="IR5" s="1" t="inlineStr">
+      <c r="IR5" s="5" t="n">
+        <v>7886.4</v>
+      </c>
+      <c r="IS5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5765,7 +5783,10 @@
       <c r="IQ6" s="5" t="n">
         <v>26391.8</v>
       </c>
-      <c r="IR6" s="1" t="inlineStr">
+      <c r="IR6" s="5" t="n">
+        <v>31924.9</v>
+      </c>
+      <c r="IS6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6533,7 +6554,10 @@
       <c r="IQ7" s="5" t="n">
         <v>45250.0</v>
       </c>
-      <c r="IR7" s="1" t="inlineStr">
+      <c r="IR7" s="5" t="n">
+        <v>49153.5</v>
+      </c>
+      <c r="IS7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7301,7 +7325,10 @@
       <c r="IQ8" s="5" t="n">
         <v>16166.8</v>
       </c>
-      <c r="IR8" s="1" t="inlineStr">
+      <c r="IR8" s="5" t="n">
+        <v>21745.3</v>
+      </c>
+      <c r="IS8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8069,7 +8096,10 @@
       <c r="IQ9" s="5" t="n">
         <v>31302.9</v>
       </c>
-      <c r="IR9" s="1" t="inlineStr">
+      <c r="IR9" s="5" t="n">
+        <v>30864.2</v>
+      </c>
+      <c r="IS9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8837,7 +8867,10 @@
       <c r="IQ10" s="5" t="n">
         <v>36966.9</v>
       </c>
-      <c r="IR10" s="1" t="inlineStr">
+      <c r="IR10" s="5" t="n">
+        <v>36317.8</v>
+      </c>
+      <c r="IS10" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9605,7 +9638,10 @@
       <c r="IQ11" s="5" t="n">
         <v>25538.2</v>
       </c>
-      <c r="IR11" s="1" t="inlineStr">
+      <c r="IR11" s="5" t="n">
+        <v>23548.3</v>
+      </c>
+      <c r="IS11" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10373,7 +10409,10 @@
       <c r="IQ12" s="5" t="n">
         <v>24547.9</v>
       </c>
-      <c r="IR12" s="1" t="inlineStr">
+      <c r="IR12" s="5" t="n">
+        <v>25506.7</v>
+      </c>
+      <c r="IS12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11141,7 +11180,10 @@
       <c r="IQ13" s="5" t="n">
         <v>11042.2</v>
       </c>
-      <c r="IR13" s="1" t="inlineStr">
+      <c r="IR13" s="5" t="n">
+        <v>10095.5</v>
+      </c>
+      <c r="IS13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11909,7 +11951,10 @@
       <c r="IQ14" s="5" t="n">
         <v>477724.0</v>
       </c>
-      <c r="IR14" s="1" t="inlineStr">
+      <c r="IR14" s="5" t="n">
+        <v>496423.0</v>
+      </c>
+      <c r="IS14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12677,7 +12722,10 @@
       <c r="IQ15" s="5" t="n">
         <v>47274.8</v>
       </c>
-      <c r="IR15" s="1" t="inlineStr">
+      <c r="IR15" s="5" t="n">
+        <v>45314.2</v>
+      </c>
+      <c r="IS15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13445,7 +13493,10 @@
       <c r="IQ16" s="5" t="n">
         <v>524998.8</v>
       </c>
-      <c r="IR16" s="1" t="inlineStr">
+      <c r="IR16" s="5" t="n">
+        <v>541737.1</v>
+      </c>
+      <c r="IS16" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14213,7 +14264,10 @@
       <c r="IQ17" s="5" t="n">
         <v>5527.0</v>
       </c>
-      <c r="IR17" s="1" t="inlineStr">
+      <c r="IR17" s="5" t="n">
+        <v>6004.1</v>
+      </c>
+      <c r="IS17" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14981,7 +15035,10 @@
       <c r="IQ18" s="5" t="n">
         <v>530525.9</v>
       </c>
-      <c r="IR18" s="1" t="inlineStr">
+      <c r="IR18" s="5" t="n">
+        <v>547741.2</v>
+      </c>
+      <c r="IS18" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15749,7 +15806,10 @@
       <c r="IQ19" s="5" t="n">
         <v>331797.3</v>
       </c>
-      <c r="IR19" s="1" t="inlineStr">
+      <c r="IR19" s="5" t="n">
+        <v>345271.6</v>
+      </c>
+      <c r="IS19" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16517,7 +16577,10 @@
       <c r="IQ20" s="5" t="n">
         <v>240443.6</v>
       </c>
-      <c r="IR20" s="1" t="inlineStr">
+      <c r="IR20" s="5" t="n">
+        <v>250043.5</v>
+      </c>
+      <c r="IS20" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17365,7 +17428,10 @@
       <c r="IQ21" s="3" t="n">
         <v>231158.8</v>
       </c>
-      <c r="IR21" s="1" t="inlineStr">
+      <c r="IR21" s="3" t="n">
+        <v>241278.3</v>
+      </c>
+      <c r="IS21" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18213,7 +18279,10 @@
       <c r="IQ22" s="3" t="n">
         <v>9284.7</v>
       </c>
-      <c r="IR22" s="1" t="inlineStr">
+      <c r="IR22" s="3" t="n">
+        <v>8765.2</v>
+      </c>
+      <c r="IS22" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18981,7 +19050,10 @@
       <c r="IQ23" s="5" t="n">
         <v>91353.7</v>
       </c>
-      <c r="IR23" s="1" t="inlineStr">
+      <c r="IR23" s="5" t="n">
+        <v>95228.2</v>
+      </c>
+      <c r="IS23" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19749,7 +19821,10 @@
       <c r="IQ24" s="5" t="n">
         <v>170561.1</v>
       </c>
-      <c r="IR24" s="1" t="inlineStr">
+      <c r="IR24" s="5" t="n">
+        <v>180435.3</v>
+      </c>
+      <c r="IS24" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20517,7 +20592,10 @@
       <c r="IQ25" s="5" t="n">
         <v>160075.2</v>
       </c>
-      <c r="IR25" s="1" t="inlineStr">
+      <c r="IR25" s="5" t="n">
+        <v>177247.9</v>
+      </c>
+      <c r="IS25" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21285,7 +21363,10 @@
       <c r="IQ26" s="5" t="n">
         <v>79522.6</v>
       </c>
-      <c r="IR26" s="1" t="inlineStr">
+      <c r="IR26" s="5" t="n">
+        <v>88662.0</v>
+      </c>
+      <c r="IS26" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22053,7 +22134,10 @@
       <c r="IQ27" s="5" t="n">
         <v>44770.7</v>
       </c>
-      <c r="IR27" s="1" t="inlineStr">
+      <c r="IR27" s="5" t="n">
+        <v>48456.2</v>
+      </c>
+      <c r="IS27" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22821,7 +22905,10 @@
       <c r="IQ28" s="5" t="n">
         <v>35781.8</v>
       </c>
-      <c r="IR28" s="1" t="inlineStr">
+      <c r="IR28" s="5" t="n">
+        <v>40129.7</v>
+      </c>
+      <c r="IS28" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23589,7 +23676,10 @@
       <c r="IQ29" s="5" t="n">
         <v>10486.0</v>
       </c>
-      <c r="IR29" s="1" t="inlineStr">
+      <c r="IR29" s="5" t="n">
+        <v>3187.4</v>
+      </c>
+      <c r="IS29" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24357,7 +24447,10 @@
       <c r="IQ30" s="5" t="n">
         <v>220671.2</v>
       </c>
-      <c r="IR30" s="1" t="inlineStr">
+      <c r="IR30" s="5" t="n">
+        <v>246202.3</v>
+      </c>
+      <c r="IS30" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25125,7 +25218,10 @@
       <c r="IQ31" s="5" t="n">
         <v>198990.6</v>
       </c>
-      <c r="IR31" s="1" t="inlineStr">
+      <c r="IR31" s="5" t="n">
+        <v>229144.5</v>
+      </c>
+      <c r="IS31" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25893,7 +25989,10 @@
       <c r="IQ32" s="5" t="n">
         <v>959.9</v>
       </c>
-      <c r="IR32" s="1" t="inlineStr">
+      <c r="IR32" s="5" t="n">
+        <v>-1027.7</v>
+      </c>
+      <c r="IS32" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
